--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560336/JX560336_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560336/JX560336_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89296151854</v>
+        <v>45441.83322415932</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1289t&gt;a']</t>
+          <t>['1384_1474inscagcaattacgttatcaagcaatatagttaattccgcgcctatcactaataaatctcgaggccagatgtgaagttacttggattcgggat', '1342_1486insttaaccctccggaacgtacccttgtaacaggaatctcagaactaggcatgtatccgccccactagattcctgatgcaagtccagaggaggtctggagctaaacacgggatttggaacacttccaccgtgtgtttctctgatccc', '1339_1394del', '1330_1445del', '1526_1652del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.8929615359</v>
+        <v>45441.83322419409</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['236t&gt;c']</t>
+          <t>['152_295instatcgtaaacgggtccgttgcagacccacgcggctgagacggcctgctgtccccgccgaagctccccctaagaggcgtgcgggtttggattcagtcagcgttatacctggcaccagaggcaccggtcattactaactccgcgc', '195_344del', '214_272del', '238_276del', '193_294insagtttgtccagcgggacatgatatttacaaggtactgcccgataacccatcgcgctgatacgcatactgaggaaacccttgccctgcatccaaggatccgt']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89296155328</v>
+        <v>45441.83322421145</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2040_2041insa']</t>
+          <t>['2002_2131insatgacaatgggctttaaatcacagttattcctcggtacaggaacataacacacggacgcacatcgtgcattagaaaagacttgccattgggtgagtcgcggggtaatcggctagacgtgagtgtgttca', '2049_2129del', '1988_2000del', '2003_2013del', '2016_2030instcaactgcggggtg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89296157642</v>
+        <v>45441.8332243328</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1483t&gt;g']</t>
+          <t>['1460_1544del', '1391_1444del', '1319_1412del', '1339_1395del', '1503_1515insaagtctttacga']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['230_234insagag']</t>
+          <t>['253_312insctaagagttgcaagtgaaagacttatgccagacccagaacacacgtgggcggatctatt', '228_313del', '225_352del', '158_279del', '245_315del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89296158799</v>
+        <v>45441.83322435021</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1402t&gt;g']</t>
+          <t>['1423_1560insccatattatccacgaaccctcgtaagttacgcaggctaacacttctcccgtcaccgcgagtagagtccgctgcataaggtgctccacgtgatgccagaaaagcgaacctaatagacgaaaaagtaatagtgttccat', '1310_1445insggctctttacgtccacaccaatagtcagggggcgaaggaacagggacagtccccagagcaacagcggaagtgcggctgggacgaaaaagtcttcgtcatgcagtcgcggaaactccgtgcccctcgcaatgtatt', '1371_1475insggggctgatcgggtccactgaccaaggtgggaggggttcagactgaggagcggtgcgggcagcgcgtaatgtcacgcactttacacccctcattcttttacaga', '1350_1481instcagcatctaaatcgcgcattcctatgctagttattggctagttaatccactcaagagtgccattcggccaccttctcggtaaccgatctgtcgggagttccgtaaatcattggatcagtgccgtgtgtat', '1411_1463instggatctcgtgcccggtgttcccaccacggacagtgtcataatctagtcgcc']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['2003a&gt;t']</t>
+          <t>['1956_2098inscgcggcctgtcaccgttctgaggactgaagttggtagtatcggtctcctcgcaaccttgaaagaagttgatcctggcctggagataacaaagaaaggctcgctcgccacgggcttgtgccagcccctgtatagacgaacccc', '1960_1977del', '1977_2025insatcaacccgaagggtgacggttcggaagcgtcagacgatacttagatt', '1988_2112del', '1995_2098instgaaaaatcgacaccaaccggcgggtgcgccagtgtatctcaattttgcaggcacaaaatgttaagacatgatgagaggaggtccttatccatattctccccc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89296160535</v>
+        <v>45441.83322436761</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['233t&gt;c']</t>
+          <t>['163_279insttgggaacttacgtcgtgggccccccgcaaatcacagaacgtacatcaagcttttatcgctaagagaattctcatgcctagtttatagggggaggccggctgaaaaatgaatgccg', '164_298del', '208_327inscgcgaacgtggtgataagcccgggcgcctctgactcaatgatggtgcattgaggtgggccaagcgattgggctgtattaggtcacgcgtaaaccgggggagttcatagcgcctttcgcg', '196_268insgcaattaatggaatgctagtccctgcgcggaacctagaccccaaccgtgctctgggtctacaacgcattcct', '189_295insattcactgagccgatactaaaatacgtggatgacctaactttagcctgtcgccactctgagacccccagaactcagttcagagactatggatatcgtagattctgg']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['1989_1990insa']</t>
+          <t>['2035_2181del', '2040_2094insatacctcaccagtcgtccactggttgggtatcacccaggagcacggtccaaagt', '2051_2117instgggatttgtgtgggctctatgatttgtaacatacggtgaccccacgcgaggtagattgaaaagac', '2004_2145instttaaaatcaaaatagattagtgaacttgacgaacaatcttagtcctcctggcaggaatgccaatttgttcgccaaataacctccgaaagctgaattggcggaagtcatcaactcacgccaaacccaaaaggtatagccat', '1978_2087del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89296162271</v>
+        <v>45441.83322439075</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1468_1468del']</t>
+          <t>['1307_1330del', '1515_1612instcttagagcttagtcggtggtcggcggtacacatgcgttgtcaaatatcagattaagtataaacttaaccattccttgaccaatcagatttcattcg', '1525_1586del', '1349_1392del', '1498_1607insgaacattcgttgaagatcgaatgtacttcagacagctgcgtctcatctttccgtctattcgcagcgacgagacgcctcatcaagaaagattcagtaaccagacacgaag']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['212c&gt;g']</t>
+          <t>['160_196del', '232_353insacacaccgaaagagtgctagcttctttactgatcccatatatttgtccatgaagtcactatgcctgtctctcgatcaaaatgatgataggccgtgaagtactagtaattttaggacctgtg', '240_292del', '251_314del', '219_288del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['1952_1954del']</t>
+          <t>['2023_2063del', '1973_2088del', '2041_2090inscagcatagctccttgttagtatttcttatacgcggggctatgggttcgt', '2029_2157insaccgtgcagacacgcgggcactgtgggacattcacctggtggctctgaaccacaccgaaaagcaaccattccgcccgggcagagtgtccctcactcatgcctagtctccctccctgagaactgagtcc', '2027_2167del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89296163428</v>
+        <v>45441.8332244139</v>
       </c>
     </row>
   </sheetData>
